--- a/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-accept-operation-output-parameters.xlsx
+++ b/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-accept-operation-output-parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -383,6 +383,10 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
   </si>
@@ -423,6 +427,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -462,6 +476,9 @@
     <t>The name of the parameter (reference to the operation definition).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Parameters.parameter.value[x]</t>
   </si>
   <si>
@@ -475,24 +492,31 @@
     <t>If the parameter is a data type.</t>
   </si>
   <si>
+    <t>ele-1
+inv-1</t>
+  </si>
+  <si>
+    <t>Parameters.parameter.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>If parameter is a whole resource</t>
+  </si>
+  <si>
+    <t>If the parameter is a whole resource.</t>
+  </si>
+  <si>
+    <t>When resolving references in resources, the operation definition may specify how references may be resolved between parameters. If a reference cannot be resolved between the parameters, the application should fall back to it's general resource resolution methods.</t>
+  </si>
+  <si>
     <t xml:space="preserve">inv-1
 </t>
   </si>
   <si>
-    <t>Parameters.parameter.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>If parameter is a whole resource</t>
-  </si>
-  <si>
-    <t>If the parameter is a whole resource.</t>
-  </si>
-  <si>
-    <t>When resolving references in resources, the operation definition may specify how references may be resolved between parameters. If a reference cannot be resolved between the parameters, the application should fall back to it's general resource resolution methods.</t>
+    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Parameters.parameter.part</t>
@@ -531,7 +555,7 @@
     <t>Parameters.parameter:return.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Bundle {https://gematik.de/fhir/erp/StructureDefinition/eflow-rx-bundle-op-accept}
+    <t xml:space="preserve">Bundle {https://gematik.de/fhir/erp/StructureDefinition/GEM-ERP-PR-Bundle-OP-Accept}
 </t>
   </si>
   <si>
@@ -902,7 +926,7 @@
     <col min="26" max="26" width="35.15234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1659,24 +1683,24 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1699,13 +1723,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1756,7 +1780,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -1779,14 +1803,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1805,16 +1829,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1852,19 +1876,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1876,7 +1900,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -1887,14 +1911,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -1913,19 +1937,19 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -1974,7 +1998,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1986,21 +2010,21 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2023,15 +2047,17 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2080,7 +2106,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>85</v>
@@ -2103,10 +2129,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2129,13 +2155,13 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2186,7 +2212,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2195,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>97</v>
@@ -2204,15 +2230,15 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2235,16 +2261,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2294,7 +2320,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2303,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -2312,15 +2338,15 @@
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2346,13 +2372,13 @@
         <v>76</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2402,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2414,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2425,13 +2451,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>113</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2519,24 +2545,24 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2559,13 +2585,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2616,7 +2642,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2639,14 +2665,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2665,16 +2691,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2712,19 +2738,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2736,7 +2762,7 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -2747,14 +2773,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2773,19 +2799,19 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -2834,7 +2860,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -2846,21 +2872,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2883,15 +2909,17 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -2901,7 +2929,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -2940,7 +2968,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
@@ -2963,10 +2991,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2989,13 +3017,13 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3046,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3055,7 +3083,7 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
@@ -3064,15 +3092,15 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3095,16 +3123,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3154,7 +3182,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3169,18 +3197,18 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3206,13 +3234,13 @@
         <v>76</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3262,7 +3290,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3274,7 +3302,7 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
